--- a/Labs/project/vypocet_napeti.xlsx
+++ b/Labs/project/vypocet_napeti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VUT_FEKT\3.rocnik\BPC-DE2\GIT local\Digital-electronics-2\Labs\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{165F1888-1AD4-48CD-9FF8-163FF7AC5B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675F9D5-65CF-493B-873A-2C4467705F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{A6A296FF-A67A-47A4-8D2D-D0D9E1670508}"/>
   </bookViews>
@@ -58,12 +58,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -109,6 +115,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +439,7 @@
   <dimension ref="B3:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,32 +530,32 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -553,36 +565,36 @@
       <c r="E7" s="2"/>
       <c r="H7" s="5"/>
       <c r="I7" s="4">
-        <f>I6*(5*I5)</f>
-        <v>5</v>
+        <f t="shared" ref="I7:P7" si="1">I6*(5*I5)</f>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" ref="J7:P7" si="1">J6*(5*J5)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -595,7 +607,7 @@
       </c>
       <c r="I8" s="4">
         <f>SUM(I7:P7)/256</f>
-        <v>4.98046875</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
